--- a/Delivery/TaiLieuThamKhao.xlsx
+++ b/Delivery/TaiLieuThamKhao.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Nam5_Ky1\PPNCIT\Delivery\"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Danh sách tài liệu tham khảo</t>
   </si>
@@ -38,14 +38,7 @@
     <t>Chú thích</t>
   </si>
   <si>
-    <t>History of TouchID. &lt;https://en.wikipedia.org/wiki/Touch_ID&gt;</t>
-  </si>
-  <si>
     <t>Sử dụng mục History</t>
-  </si>
-  <si>
-    <t>Fingerprint classification and matching
-&lt;http://biometrics.cse.msu.edu/Publications/Fingerprint/MSU-CPS-99-5_a.pdf&gt;</t>
   </si>
   <si>
     <t>sử dụng history of fingerprints</t>
@@ -64,12 +57,29 @@
     <t>Lớp: TH11A</t>
   </si>
   <si>
-    <t>Thẻ ATM dùng vân tay đầu tiên ở Việt Nam
-&lt;http://baochinhphu.vn/Bi-an-Khoa-hoc-Cong-nghe/The-ATM-dung-van-tay-dau-tien-o-Viet-Nam/145826.vgp&gt;</t>
-  </si>
-  <si>
     <t>The History of Fingerprints
 &lt;http://www.onin.com/fp/fphistory.html&gt;</t>
+  </si>
+  <si>
+    <t>WHAT IS DERMATOGLYPHICS?
+&lt;http://dermatoglyphics.org/&gt;</t>
+  </si>
+  <si>
+    <t>History of TouchID.
+ &lt;https://en.wikipedia.org/wiki/Touch_ID&gt;</t>
+  </si>
+  <si>
+    <t>Anil Jain – Sharath Pankanti, Fingerprint classification and matching
+&lt;http://biometrics.cse.msu.edu/Publications/Fingerprint/MSU-CPS-99-5_a.pdf&gt;</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Huệ, Nghiên cứu một số giải thuật phân tích
+đặc trưng vân tay và thử nghiệm trong nhận dạng vân tay
+&lt;http://dlib.ptit.edu.vn/bitstream/123456789/1118/1/TTLV%20Nguyen%20Thi%20Hue.pdf&gt;</t>
+  </si>
+  <si>
+    <t>Nguyên Đăng (Theo DDB Bank), Thẻ ATM dùng vân tay đầu tiên ở Việt Nam
+&lt;http://baochinhphu.vn/Bi-an-Khoa-hoc-Cong-nghe/The-ATM-dung-van-tay-dau-tien-o-Viet-Nam/145826.vgp&gt;</t>
   </si>
 </sst>
 </file>
@@ -137,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -155,7 +165,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -474,26 +487,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="54.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.25" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="95" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="103.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -507,7 +521,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -521,15 +535,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
@@ -537,18 +551,18 @@
         <v>2</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>3</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C9" s="6"/>
     </row>
@@ -556,8 +570,8 @@
       <c r="A10" s="5">
         <v>4</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>12</v>
+      <c r="B10" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C10" s="6"/>
     </row>
@@ -565,20 +579,28 @@
       <c r="A11" s="5">
         <v>5</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>13</v>
+      <c r="B11" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+    <row r="12" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>6</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
@@ -586,7 +608,10 @@
       <c r="C14" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" display="http://dermatoglyphics.org/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>